--- a/solo-project_database-tables.xlsx
+++ b/solo-project_database-tables.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>systems</t>
   </si>
@@ -256,22 +256,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Inherit"/>
     </font>
     <font>
       <u/>
@@ -290,22 +281,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
@@ -319,6 +300,23 @@
       <u/>
       <sz val="14"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -565,59 +563,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -627,68 +673,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -704,6 +759,36 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -719,6 +804,36 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1048,13 +1163,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
@@ -1065,421 +1183,438 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="7"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="7"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="7"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="42" spans="1:1" ht="18" customHeight="1">
+      <c r="A42" s="28"/>
+    </row>
+    <row r="43" spans="1:1" ht="18" customHeight="1">
+      <c r="A43" s="28"/>
+    </row>
+    <row r="44" spans="1:1" ht="18" customHeight="1">
+      <c r="A44" s="28"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.25" footer="0.25"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="85"/>
     </ext>
   </extLst>
 </worksheet>
